--- a/Documenation/1001-ExplainationProjectLibClasses.xlsx
+++ b/Documenation/1001-ExplainationProjectLibClasses.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAC29C-AB52-40CF-B3DE-7FD7F9B73C7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD53CDB8-CD30-4103-A18E-8CEE60020C12}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer" sheetId="1" r:id="rId1"/>
-    <sheet name="Encrypt" sheetId="2" r:id="rId2"/>
+    <sheet name="Encrypt" sheetId="2" r:id="rId1"/>
+    <sheet name="Customer" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="95">
   <si>
     <t>Customer</t>
   </si>
@@ -179,9 +179,6 @@
 methods</t>
   </si>
   <si>
-    <t>Static variables</t>
-  </si>
-  <si>
     <t>crypData</t>
   </si>
   <si>
@@ -209,6 +206,113 @@
   <si>
     <t>EncryptString(string plainText,
 string passPhrase)</t>
+  </si>
+  <si>
+    <t>the data file is saved in the same folder as the .exe file</t>
+  </si>
+  <si>
+    <t>for encrypting and decrypting the data the passphrase "!!THE NORTH REMEMBERS!!" was used. To ensure a working encryption/decrytion it is neccessary use this passphrase for all versions.</t>
+  </si>
+  <si>
+    <t>this is a variable to test the encrypting and the saving in the data file. Is the variable true all the data in the data file is encrypted. Is the value false, the data is not encrypted and can be read.</t>
+  </si>
+  <si>
+    <t>Static
+variables</t>
+  </si>
+  <si>
+    <t>This function checks if the a name is valid. There are no requirements concerning the name validation of first name and second name but this validation was chosen to ensure a proper and meaningful entry.</t>
+  </si>
+  <si>
+    <t>includes the first name of the customer</t>
+  </si>
+  <si>
+    <t>includes the last name of the customer</t>
+  </si>
+  <si>
+    <t>includes the email address of the customer</t>
+  </si>
+  <si>
+    <t>includes the unique customer number</t>
+  </si>
+  <si>
+    <t>includes the current balance value of the customer</t>
+  </si>
+  <si>
+    <t>includes the date when the balance of the account was changed for the last time</t>
+  </si>
+  <si>
+    <t>public constructor; once the constructor is used the customer is saved to the data file if all input values are correct otherwise an exception is thrown. The customer number is assigned automatically, the balance is set to 0 and the date of last change is set to the date of the creation of the customer</t>
+  </si>
+  <si>
+    <t>private constructor; is only required for the class functions (e.g. for reading all customers from the data file and create objects); this constructor creates a customer with all attributes</t>
+  </si>
+  <si>
+    <t>public get; private set; there is no requirement to change the first name only to initialize it. So the set attribute is only called in the constructor</t>
+  </si>
+  <si>
+    <t>public get; private set; the last name can only be changed by the method "ChangeLastname" the set attribute is called by this method and the constructor</t>
+  </si>
+  <si>
+    <t>public get; private set; the email address can only be changed by the method "ChangeEmailAdress". The set attribute is called by this method and the constructor</t>
+  </si>
+  <si>
+    <t>public get; the customer number is unique for every customer and there is no need to change it because it is generated automatically</t>
+  </si>
+  <si>
+    <t>public get; The value of the balance is only set by the methods for adding and withdraw money</t>
+  </si>
+  <si>
+    <t>public get; The date of the last change is only set by the methods for adding and withdraw money</t>
+  </si>
+  <si>
+    <t>returns a string with all information of the customer</t>
+  </si>
+  <si>
+    <t>adds the given amount of money to the account</t>
+  </si>
+  <si>
+    <t>withdraws the amount of money from the account</t>
+  </si>
+  <si>
+    <t>the last name of the customer is changed to the given new name; an exception is thrown if the name is not valid</t>
+  </si>
+  <si>
+    <t>the email address of the customer is changed to the given new email address; an exception is thrown if the email address is not valid or</t>
+  </si>
+  <si>
+    <t>Unit
+tested</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>The saving file is updated with object: either the attributes of the object are updated or if the object doesn't exist, it is added to the list</t>
+  </si>
+  <si>
+    <t>Returns a list of all customers who are saved in the data file</t>
+  </si>
+  <si>
+    <t>Returns the customer with the given customer number</t>
+  </si>
+  <si>
+    <t>checks if the given email address is valid</t>
+  </si>
+  <si>
+    <t>Returns a list of customers who include the given text in their names. The searching algorithm is case sensitive</t>
+  </si>
+  <si>
+    <t>Deletes the old data file and creates a new one</t>
+  </si>
+  <si>
+    <t>Saves the given list of customers in the data file</t>
+  </si>
+  <si>
+    <t>Returns a unique customer number. The customer number is consecutive number and starts with 100000 for the first customer in the list</t>
+  </si>
+  <si>
+    <t>Checks if the given email address is unique</t>
   </si>
 </sst>
 </file>
@@ -238,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -478,11 +582,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,11 +651,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -529,65 +711,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDCA51-F8C0-46DE-AEB8-05706D15D085}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -882,25 +1040,29 @@
     <col min="3" max="3" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.06640625" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:6" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>53</v>
+      <c r="F1" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -908,446 +1070,79 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="18"/>
+      <c r="D2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="35"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="33"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="13"/>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="13"/>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="35"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="35"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="13"/>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="13"/>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="28"/>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="14"/>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="14"/>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="14"/>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="15"/>
-      <c r="B33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="33"/>
+      <c r="D5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="38" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDCA51-F8C0-46DE-AEB8-05706D15D085}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1357,25 +1152,29 @@
     <col min="3" max="3" width="12.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.86328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.06640625" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:6" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>53</v>
+      <c r="F1" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1383,57 +1182,596 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="18"/>
+      <c r="D2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="85.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="22"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="85.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="23"/>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="23"/>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="23"/>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="23"/>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="85.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="25"/>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="26"/>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="26"/>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A16" s="26"/>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="26"/>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="25"/>
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="26"/>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="26"/>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A22" s="26"/>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="26"/>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="25"/>
+      <c r="B24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="D25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="27"/>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="33"/>
+      <c r="D26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="27"/>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="27"/>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A29" s="27"/>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="27"/>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="27"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A32" s="27"/>
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="28"/>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A25:A33"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>